--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-212&DS-105_システム機能一覧(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-212&DS-105_システム機能一覧(サンプル＆ガイド).xlsx
@@ -1489,16 +1489,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1641,6 +1631,9 @@
       <t>キジュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -2255,18 +2248,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2285,50 +2266,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2372,11 +2332,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5425,7 +5418,9 @@
   </sheetPr>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5514,9 +5509,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="18"/>
       <c r="J31" s="22"/>
-      <c r="R31" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="R31" s="23"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="18"/>
@@ -5556,20 +5549,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S39" s="27"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6044,7 +6041,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -6106,12 +6103,12 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6178,299 +6175,299 @@
       <c r="B31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="36" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="36" t="s">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="38"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="34"/>
     </row>
     <row r="32" spans="1:34" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5">
         <v>1</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="39" t="s">
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="41"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="37"/>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5">
         <f>B32+1</f>
         <v>2</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="32" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="34"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="40"/>
     </row>
     <row r="34" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5">
         <f t="shared" ref="B34:B37" si="0">B33+1</f>
         <v>3</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="32" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="34"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="40"/>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="34"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="40"/>
     </row>
     <row r="36" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="32" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="32" t="s">
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="34"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="40"/>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="32" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="34"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="40"/>
     </row>
     <row r="39" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
@@ -6505,12 +6502,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="I33:Y33"/>
     <mergeCell ref="Z33:AH33"/>
@@ -6526,6 +6517,12 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="I36:Y36"/>
     <mergeCell ref="Z36:AH36"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6559,755 +6556,770 @@
     </row>
     <row r="2" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="63" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="69" t="s">
+      <c r="R3" s="53"/>
+      <c r="S3" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="57" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="48"/>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="62"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="51"/>
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="6">
         <v>10</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="46" t="s">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="39" t="s">
+      <c r="R5" s="62"/>
+      <c r="S5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="71" t="s">
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="K6" s="5">
         <v>20</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="49" t="s">
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="51"/>
-      <c r="S6" s="32" t="s">
+      <c r="R6" s="68"/>
+      <c r="S6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="52" t="s">
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
     </row>
     <row r="7" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="5">
         <v>30</v>
       </c>
-      <c r="L7" s="49" t="s">
+      <c r="L7" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="49" t="s">
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="32" t="s">
+      <c r="R7" s="68"/>
+      <c r="S7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="52" t="s">
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="5">
         <v>10</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="49" t="s">
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="32" t="s">
+      <c r="R8" s="68"/>
+      <c r="S8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="52" t="s">
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="K9" s="5">
         <v>20</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="49" t="s">
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="32" t="s">
+      <c r="R9" s="68"/>
+      <c r="S9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="52" t="s">
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
     </row>
     <row r="10" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="5">
         <v>30</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="49" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="32" t="s">
+      <c r="R10" s="68"/>
+      <c r="S10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="52" t="s">
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
     </row>
     <row r="11" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="K11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="49" t="s">
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="32" t="s">
+      <c r="R11" s="68"/>
+      <c r="S11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="52" t="s">
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
       <c r="K12" s="5">
         <v>20</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L12" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="49" t="s">
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="32" t="s">
+      <c r="R12" s="68"/>
+      <c r="S12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="52" t="s">
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="5">
         <v>10</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="49" t="s">
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="51"/>
-      <c r="S13" s="32" t="s">
+      <c r="R13" s="68"/>
+      <c r="S13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="52" t="s">
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
     </row>
     <row r="14" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="5">
         <v>10</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="49" t="s">
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="32" t="s">
+      <c r="R14" s="68"/>
+      <c r="S14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="52" t="s">
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
     </row>
     <row r="15" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="K15" s="5">
         <v>20</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="49" t="s">
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="51"/>
-      <c r="S15" s="32" t="s">
+      <c r="R15" s="68"/>
+      <c r="S15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="52" t="s">
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="42"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
     </row>
     <row r="16" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="5">
         <v>30</v>
       </c>
-      <c r="L16" s="49" t="s">
+      <c r="L16" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="49" t="s">
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="51"/>
-      <c r="S16" s="32" t="s">
+      <c r="R16" s="68"/>
+      <c r="S16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="52" t="s">
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
     </row>
     <row r="17" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="49" t="s">
+      <c r="L17" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="49" t="s">
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="51"/>
-      <c r="S17" s="32" t="s">
+      <c r="R17" s="68"/>
+      <c r="S17" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33" t="s">
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
     </row>
     <row r="18" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="S7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="S11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="S10:AE10"/>
-    <mergeCell ref="S6:AE6"/>
-    <mergeCell ref="S9:AE9"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="S8:AE8"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="S3:AE4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="S15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S14:AE14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="S13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S12:AE12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="L9:P9"/>
@@ -7324,49 +7336,34 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="S15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S14:AE14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="S3:AE4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S6:AE6"/>
+    <mergeCell ref="S9:AE9"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="S8:AE8"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="S7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="S11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="S10:AE10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-212&DS-105_システム機能一覧(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-212&DS-105_システム機能一覧(サンプル＆ガイド).xlsx
@@ -1489,6 +1489,16 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1631,9 +1641,6 @@
       <t>キジュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -2248,6 +2255,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2266,29 +2285,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2332,44 +2372,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5418,9 +5425,7 @@
   </sheetPr>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5509,7 +5514,9 @@
       <c r="G31" s="21"/>
       <c r="H31" s="18"/>
       <c r="J31" s="22"/>
-      <c r="R31" s="23"/>
+      <c r="R31" s="23" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="18"/>
@@ -5549,24 +5556,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S39" s="27"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6041,7 +6044,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -6103,12 +6106,12 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6175,299 +6178,299 @@
       <c r="B31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="32" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="32" t="s">
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="34"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="38"/>
     </row>
     <row r="32" spans="1:34" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5">
         <v>1</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="35" t="s">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="37"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="41"/>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5">
         <f>B32+1</f>
         <v>2</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="38" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="40"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="34"/>
     </row>
     <row r="34" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5">
         <f t="shared" ref="B34:B37" si="0">B33+1</f>
         <v>3</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="38" t="s">
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="40"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="34"/>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="40"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="34"/>
     </row>
     <row r="36" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="38" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="38" t="s">
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="40"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="34"/>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="38" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="40"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="34"/>
     </row>
     <row r="39" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
@@ -6502,6 +6505,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="I33:Y33"/>
     <mergeCell ref="Z33:AH33"/>
@@ -6517,12 +6526,6 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="I36:Y36"/>
     <mergeCell ref="Z36:AH36"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6556,770 +6559,755 @@
     </row>
     <row r="2" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="58" t="s">
+      <c r="R3" s="64"/>
+      <c r="S3" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="46" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="48"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
       <c r="K4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="51"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="62"/>
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="6">
         <v>10</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="60" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="35" t="s">
+      <c r="R5" s="48"/>
+      <c r="S5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="44" t="s">
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="5">
         <v>20</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="66" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="38" t="s">
+      <c r="R6" s="51"/>
+      <c r="S6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="42" t="s">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
     </row>
     <row r="7" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="5">
         <v>30</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="66" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="68"/>
-      <c r="S7" s="38" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="42" t="s">
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="5">
         <v>10</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="66" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="68"/>
-      <c r="S8" s="38" t="s">
+      <c r="R8" s="51"/>
+      <c r="S8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="42" t="s">
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="5">
         <v>20</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="66" t="s">
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="68"/>
-      <c r="S9" s="38" t="s">
+      <c r="R9" s="51"/>
+      <c r="S9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="42" t="s">
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
     </row>
     <row r="10" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="5">
         <v>30</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="66" t="s">
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="68"/>
-      <c r="S10" s="38" t="s">
+      <c r="R10" s="51"/>
+      <c r="S10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="42" t="s">
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
     </row>
     <row r="11" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="66" t="s">
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="38" t="s">
+      <c r="R11" s="51"/>
+      <c r="S11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="42" t="s">
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="5">
         <v>20</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="66" t="s">
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="68"/>
-      <c r="S12" s="38" t="s">
+      <c r="R12" s="51"/>
+      <c r="S12" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="42" t="s">
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="5">
         <v>10</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="66" t="s">
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="68"/>
-      <c r="S13" s="38" t="s">
+      <c r="R13" s="51"/>
+      <c r="S13" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="42" t="s">
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
     </row>
     <row r="14" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="5">
         <v>10</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="66" t="s">
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="68"/>
-      <c r="S14" s="38" t="s">
+      <c r="R14" s="51"/>
+      <c r="S14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="42" t="s">
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
     </row>
     <row r="15" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="5">
         <v>20</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="66" t="s">
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="68"/>
-      <c r="S15" s="38" t="s">
+      <c r="R15" s="51"/>
+      <c r="S15" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="42" t="s">
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
     </row>
     <row r="16" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="5">
         <v>30</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="66" t="s">
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="68"/>
-      <c r="S16" s="38" t="s">
+      <c r="R16" s="51"/>
+      <c r="S16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="42" t="s">
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
     </row>
     <row r="17" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="66" t="s">
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="68"/>
-      <c r="S17" s="38" t="s">
+      <c r="R17" s="51"/>
+      <c r="S17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39" t="s">
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="43"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
     </row>
     <row r="18" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="S15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S14:AE14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="S13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="S7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="S11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="S10:AE10"/>
+    <mergeCell ref="S6:AE6"/>
+    <mergeCell ref="S9:AE9"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="S8:AE8"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="S3:AE4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:AE5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="L9:P9"/>
@@ -7336,34 +7324,49 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="S3:AE4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:AE6"/>
-    <mergeCell ref="S9:AE9"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="S8:AE8"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="S7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="S11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="S10:AE10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S12:AE12"/>
+    <mergeCell ref="S15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S14:AE14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="S17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-212&DS-105_システム機能一覧(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-212&DS-105_システム機能一覧(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9DE35-FEBB-406C-91DC-2159EA862402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="6000" yWindow="2430" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -17,12 +18,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1487,17 +1498,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <t>・システム化対象の業務を回すためにシステム都合で必要となる、バッチ機能や外部システムとのIF機能が網羅的に定義されていること。</t>
@@ -1632,14 +1632,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -2248,6 +2245,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2266,29 +2275,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2332,44 +2362,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2450,6 +2447,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2471,7 +2471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2587,52 +2593,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2653,7 +2613,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2737,7 +2703,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2824,7 +2796,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2911,7 +2889,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2961,7 +2945,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3039,7 +3029,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3103,7 +3099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3190,7 +3192,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3240,7 +3248,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="11" idx="1"/>
@@ -3290,7 +3304,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3377,7 +3397,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="カギ線コネクタ 30"/>
+        <xdr:cNvPr id="31" name="カギ線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3422,7 +3448,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3481,7 +3513,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3558,7 +3596,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3608,7 +3652,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3705,7 +3755,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3792,7 +3848,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3875,7 +3937,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="42" idx="1"/>
@@ -3920,7 +3988,13 @@
     <xdr:ext cx="1107996" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3997,7 +4071,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -4047,7 +4127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4134,7 +4220,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="カギ線コネクタ 37"/>
+        <xdr:cNvPr id="38" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="37" idx="1"/>
@@ -4184,7 +4276,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4197,7 +4295,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4269,7 +4373,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4341,7 +4451,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4413,7 +4529,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4515,7 +4637,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="カギ線コネクタ 44"/>
+        <xdr:cNvPr id="45" name="カギ線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -4560,7 +4688,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4619,7 +4753,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4678,7 +4818,13 @@
     <xdr:ext cx="1107996" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4755,7 +4901,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4815,7 +4967,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4892,7 +5050,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4979,7 +5143,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="カギ線コネクタ 53"/>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="53" idx="1"/>
@@ -5024,7 +5194,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5088,7 +5264,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="3"/>
           <a:endCxn id="22" idx="1"/>
@@ -5127,7 +5309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5169,7 +5351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5202,9 +5384,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5237,6 +5436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5412,15 +5628,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5523,58 +5737,47 @@
       <c r="R32" s="26"/>
       <c r="S32" s="27"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="28"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="28"/>
       <c r="R37" s="27"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="28"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="27"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>94</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="30"/>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
-      <c r="R39" s="28" t="s">
-        <v>95</v>
-      </c>
+      <c r="R39" s="28"/>
       <c r="S39" s="27"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6037,17 +6240,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6103,12 +6303,12 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6175,299 +6375,299 @@
       <c r="B31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="32" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="32" t="s">
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="34"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="38"/>
     </row>
     <row r="32" spans="1:34" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5">
         <v>1</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="37"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="41"/>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5">
         <f>B32+1</f>
         <v>2</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="38" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="40"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="34"/>
     </row>
     <row r="34" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5">
         <f t="shared" ref="B34:B37" si="0">B33+1</f>
         <v>3</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="38" t="s">
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="40"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="34"/>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="40"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="34"/>
     </row>
     <row r="36" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="38" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="38" t="s">
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="40"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="34"/>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="38" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="40"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="34"/>
     </row>
     <row r="39" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
@@ -6502,6 +6702,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="I33:Y33"/>
     <mergeCell ref="Z33:AH33"/>
@@ -6517,12 +6723,6 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="I36:Y36"/>
     <mergeCell ref="Z36:AH36"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -6539,7 +6739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -6556,770 +6756,755 @@
     </row>
     <row r="2" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="58" t="s">
+      <c r="R3" s="64"/>
+      <c r="S3" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="46" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="48"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
       <c r="K4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="51"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="62"/>
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="6">
         <v>10</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="60" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="35" t="s">
+      <c r="R5" s="48"/>
+      <c r="S5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="44" t="s">
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="5">
         <v>20</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="66" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="38" t="s">
+      <c r="R6" s="51"/>
+      <c r="S6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="42" t="s">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
     </row>
     <row r="7" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="5">
         <v>30</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="66" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="68"/>
-      <c r="S7" s="38" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="42" t="s">
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="5">
         <v>10</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="66" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="68"/>
-      <c r="S8" s="38" t="s">
+      <c r="R8" s="51"/>
+      <c r="S8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="42" t="s">
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="5">
         <v>20</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="66" t="s">
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="68"/>
-      <c r="S9" s="38" t="s">
+      <c r="R9" s="51"/>
+      <c r="S9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="42" t="s">
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
     </row>
     <row r="10" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="5">
         <v>30</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="66" t="s">
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="68"/>
-      <c r="S10" s="38" t="s">
+      <c r="R10" s="51"/>
+      <c r="S10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="42" t="s">
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
     </row>
     <row r="11" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="66" t="s">
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="38" t="s">
+      <c r="R11" s="51"/>
+      <c r="S11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="42" t="s">
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="5">
         <v>20</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="66" t="s">
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="68"/>
-      <c r="S12" s="38" t="s">
+      <c r="R12" s="51"/>
+      <c r="S12" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="42" t="s">
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="5">
         <v>10</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="66" t="s">
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="68"/>
-      <c r="S13" s="38" t="s">
+      <c r="R13" s="51"/>
+      <c r="S13" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="42" t="s">
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
     </row>
     <row r="14" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="5">
         <v>10</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="66" t="s">
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="68"/>
-      <c r="S14" s="38" t="s">
+      <c r="R14" s="51"/>
+      <c r="S14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="42" t="s">
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
     </row>
     <row r="15" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="5">
         <v>20</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="66" t="s">
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="68"/>
-      <c r="S15" s="38" t="s">
+      <c r="R15" s="51"/>
+      <c r="S15" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="42" t="s">
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
     </row>
     <row r="16" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="5">
         <v>30</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="66" t="s">
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="68"/>
-      <c r="S16" s="38" t="s">
+      <c r="R16" s="51"/>
+      <c r="S16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="42" t="s">
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
     </row>
     <row r="17" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="66" t="s">
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="68"/>
-      <c r="S17" s="38" t="s">
+      <c r="R17" s="51"/>
+      <c r="S17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39" t="s">
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="43"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
     </row>
     <row r="18" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="S15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S14:AE14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="S13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="S7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="S11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="S10:AE10"/>
+    <mergeCell ref="S6:AE6"/>
+    <mergeCell ref="S9:AE9"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="S8:AE8"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="S3:AE4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:AE5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="L9:P9"/>
@@ -7336,34 +7521,49 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="S3:AE4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="S6:AE6"/>
-    <mergeCell ref="S9:AE9"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="S8:AE8"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="S7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="S11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="S10:AE10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S12:AE12"/>
+    <mergeCell ref="S15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S14:AE14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="S17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
